--- a/biology/Botanique/Potentille_à_grandes_fleurs/Potentille_à_grandes_fleurs.xlsx
+++ b/biology/Botanique/Potentille_à_grandes_fleurs/Potentille_à_grandes_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Potentille_%C3%A0_grandes_fleurs</t>
+          <t>Potentille_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentilla grandiflora
 La Potentille à grandes fleurs (Potentilla grandiflora) est une espèce de plantes à fleurs de la famille des Rosacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Potentille_%C3%A0_grandes_fleurs</t>
+          <t>Potentille_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace haute de 10-40 cm. Les feuilles radicales sont longuement pétiolées, couvertes de poils étalés, toutes à 3 folioles. Les tiges latérales sont dressées, peu feuillées. Les grandes fleurs (15-30 mm de diamètre) sont groupées par 2-5 en cymes lâches, munies de 5 pétales jaunes, plus longs que les 10 sépales tous semblables et soudés à leur base. La floraison a lieu en juillet-aout.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Potentille_%C3%A0_grandes_fleurs</t>
+          <t>Potentille_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Montagnes : Alpes, Suisse, Italie septentrionale, Tyrol, Styrie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Potentille_%C3%A0_grandes_fleurs</t>
+          <t>Potentille_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses rases, rochers siliceux, de 1 800 à 3 000 m, en France dans les Alpes de Savoie, du Dauphiné, de Provence (moins répandue dans les Pyrénées orientales).
 </t>
